--- a/src/main/resources/template/excel/middleCheckForm.xlsx
+++ b/src/main/resources/template/excel/middleCheckForm.xlsx
@@ -25,6 +25,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
       <t>{{grade}}届学生毕业论文</t>
     </r>
     <r>
@@ -107,19 +113,19 @@
     <t>较少</t>
   </si>
   <si>
-    <t xml:space="preserve">{{workLoad==2? "√":""}} </t>
+    <t xml:space="preserve">{{workLoad0}} </t>
   </si>
   <si>
     <t>适中</t>
   </si>
   <si>
-    <t xml:space="preserve">{{workLoad==1? "√":""}} </t>
+    <t xml:space="preserve">{{workLoad1}} </t>
   </si>
   <si>
     <t>较多</t>
   </si>
   <si>
-    <t xml:space="preserve">{{workLoad==0? "√":""}}  </t>
+    <t xml:space="preserve">{{workLoad2}}  </t>
   </si>
   <si>
     <t>出勤情况</t>
@@ -128,19 +134,19 @@
     <t>较好</t>
   </si>
   <si>
-    <t xml:space="preserve">{{attitude==2? "√":""}}  </t>
+    <t xml:space="preserve">{{attitude0}}  </t>
   </si>
   <si>
     <t>一般</t>
   </si>
   <si>
-    <t xml:space="preserve">{{attitude==1? "√":""}} </t>
+    <t xml:space="preserve">{{attitude1}} </t>
   </si>
   <si>
     <t>较差</t>
   </si>
   <si>
-    <t xml:space="preserve">{{attitude==1? "√":""}}  </t>
+    <t xml:space="preserve">{{attitude2}}  </t>
   </si>
   <si>
     <t>工作进度</t>
@@ -149,34 +155,58 @@
     <t>快</t>
   </si>
   <si>
-    <t xml:space="preserve">{{workingProgress==2? "√":""}}  </t>
+    <t xml:space="preserve">{{workingProgress0}}  </t>
   </si>
   <si>
     <t>按进度进行</t>
   </si>
   <si>
-    <t xml:space="preserve">{{workingProgress==1? "√":""}} </t>
+    <t xml:space="preserve">{{workingProgress1}} </t>
   </si>
   <si>
     <t>慢</t>
   </si>
   <si>
-    <t xml:space="preserve">{{workingProgress==1? "√":""}}  </t>
+    <t xml:space="preserve">{{workingProgress2}}  </t>
   </si>
   <si>
     <t>任 务 书</t>
   </si>
   <si>
-    <r>
-      <t>{{hasTaskBook==1?"</t>
-    </r>
+    <t>{{hasTaskBook}}</t>
+  </si>
+  <si>
+    <t>开题报告</t>
+  </si>
+  <si>
+    <t>{{hasOpenReport}}</t>
+  </si>
+  <si>
+    <t>中期工作结论</t>
+  </si>
+  <si>
+    <t>{{conclude}}</t>
+  </si>
+  <si>
+    <t>调整情况</t>
+  </si>
+  <si>
+    <t>{{arrange}}</t>
+  </si>
+  <si>
+    <t>教研室主任意见</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{majorAgree}} </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
-      <t>有</t>
+      <t>教研室主任</t>
     </r>
     <r>
       <rPr>
@@ -184,7 +214,7 @@
         <rFont val="Tahoma"/>
         <charset val="0"/>
       </rPr>
-      <t>":"</t>
+      <t>(</t>
     </r>
     <r>
       <rPr>
@@ -192,7 +222,7 @@
         <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
-      <t>无</t>
+      <t>签名</t>
     </r>
     <r>
       <rPr>
@@ -200,15 +230,7 @@
         <rFont val="Tahoma"/>
         <charset val="0"/>
       </rPr>
-      <t>"}}</t>
-    </r>
-  </si>
-  <si>
-    <t>开题报告</t>
-  </si>
-  <si>
-    <r>
-      <t>{{hasOpenReport==1?"</t>
+      <t>)</t>
     </r>
     <r>
       <rPr>
@@ -216,7 +238,7 @@
         <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
-      <t>有</t>
+      <t>：</t>
     </r>
     <r>
       <rPr>
@@ -224,15 +246,17 @@
         <rFont val="Tahoma"/>
         <charset val="0"/>
       </rPr>
-      <t>":"</t>
-    </r>
+      <t>{{majorSign}}</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
-      <t>无</t>
+      <t>日期：</t>
     </r>
     <r>
       <rPr>
@@ -240,23 +264,23 @@
         <rFont val="Tahoma"/>
         <charset val="0"/>
       </rPr>
-      <t>"}}</t>
-    </r>
-  </si>
-  <si>
-    <t>中期工作结论</t>
-  </si>
-  <si>
-    <r>
-      <t>{{conclude==0?"</t>
-    </r>
+      <t>{{majorDate}}</t>
+    </r>
+  </si>
+  <si>
+    <t>学院意见</t>
+  </si>
+  <si>
+    <t>{{collegeAgree}}</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
-      <t>优</t>
+      <t>教学院长</t>
     </r>
     <r>
       <rPr>
@@ -264,7 +288,7 @@
         <rFont val="Tahoma"/>
         <charset val="0"/>
       </rPr>
-      <t>":conclude==1?"</t>
+      <t>(</t>
     </r>
     <r>
       <rPr>
@@ -272,7 +296,7 @@
         <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
-      <t>良</t>
+      <t>签名</t>
     </r>
     <r>
       <rPr>
@@ -280,7 +304,7 @@
         <rFont val="Tahoma"/>
         <charset val="0"/>
       </rPr>
-      <t>":conclude==2?"</t>
+      <t>)</t>
     </r>
     <r>
       <rPr>
@@ -288,7 +312,7 @@
         <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
-      <t>中</t>
+      <t>：</t>
     </r>
     <r>
       <rPr>
@@ -296,216 +320,16 @@
         <rFont val="Tahoma"/>
         <charset val="0"/>
       </rPr>
-      <t>":conclude==3?"</t>
-    </r>
+      <t>{{collegeSign}}</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
         <charset val="0"/>
       </rPr>
-      <t>差</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="0"/>
-      </rPr>
-      <t>":""}}</t>
-    </r>
-  </si>
-  <si>
-    <t>调整情况</t>
-  </si>
-  <si>
-    <t>{{arrange}}</t>
-  </si>
-  <si>
-    <t>教研室主任意见</t>
-  </si>
-  <si>
-    <r>
-      <t>{{majorAgree==1?"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>同意</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="0"/>
-      </rPr>
-      <t>":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>不同意</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="0"/>
-      </rPr>
-      <t>"}}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>教研室主任</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="0"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>签名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="0"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="0"/>
-      </rPr>
-      <t>{{majorSign}}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>日期：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="0"/>
-      </rPr>
-      <t>{{majorDate}}</t>
-    </r>
-  </si>
-  <si>
-    <t>学院意见</t>
-  </si>
-  <si>
-    <r>
-      <t>{{collegeAgree==1?"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>同意</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="0"/>
-      </rPr>
-      <t>":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>不同意</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="0"/>
-      </rPr>
-      <t>"}}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>教学院长</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="0"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>签名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="0"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="0"/>
-      </rPr>
-      <t>{{collegeSign}}</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>日期：</t>
     </r>
     <r>
@@ -524,11 +348,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -567,19 +391,120 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -593,28 +518,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -622,94 +525,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -730,187 +547,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1084,22 +901,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1119,17 +931,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1158,26 +988,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1186,152 +1003,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1348,16 +1165,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1755,8 +1569,8 @@
   <sheetPr/>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="6"/>
@@ -1814,14 +1628,14 @@
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="7"/>
@@ -1831,20 +1645,20 @@
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1852,22 +1666,22 @@
       <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1875,22 +1689,22 @@
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1898,22 +1712,22 @@
       <c r="A9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1921,20 +1735,20 @@
       <c r="A10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="10" t="s">
+      <c r="F10" s="11"/>
+      <c r="G10" s="9" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1942,7 +1756,7 @@
       <c r="A11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C11" s="7"/>
@@ -1952,10 +1766,10 @@
       <c r="G11" s="8"/>
     </row>
     <row r="12" ht="33" customHeight="1" spans="1:7">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="7"/>
@@ -1965,61 +1779,61 @@
       <c r="G12" s="8"/>
     </row>
     <row r="13" ht="33" customHeight="1" spans="1:7">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="16"/>
     </row>
     <row r="14" ht="33" customHeight="1" spans="1:7">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19" t="s">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="21"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="20"/>
     </row>
     <row r="15" ht="33" customHeight="1" spans="1:7">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" ht="33" customHeight="1" spans="1:7">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
     </row>
     <row r="17" ht="33" customHeight="1" spans="1:7">
-      <c r="A17" s="18"/>
-      <c r="B17" s="19" t="s">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="17">

--- a/src/main/resources/template/excel/middleCheckForm.xlsx
+++ b/src/main/resources/template/excel/middleCheckForm.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>{{qrCode}}</t>
   </si>
@@ -200,72 +200,8 @@
     <t xml:space="preserve">{{majorAgree}} </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>教研室主任</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="0"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>签名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="0"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="0"/>
-      </rPr>
-      <t>{{majorSign}}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>日期：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="0"/>
-      </rPr>
-      <t>{{majorDate}}</t>
-    </r>
+    <t>教研室主任(签名)：{{majorSign}}
+日期：{{majorDate}}</t>
   </si>
   <si>
     <t>学院意见</t>
@@ -274,72 +210,8 @@
     <t>{{collegeAgree}}</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>教学院长</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="0"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>签名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="0"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="0"/>
-      </rPr>
-      <t>{{collegeSign}}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>日期：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <charset val="0"/>
-      </rPr>
-      <t>{{collegeDate}}</t>
-    </r>
+    <t>教学院长(签名)：{{collegeSign}}
+日期：{{collegeDate}}</t>
   </si>
 </sst>
 </file>
@@ -732,7 +604,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -809,33 +681,18 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="8"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -850,6 +707,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -867,37 +750,6 @@
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1009,7 +861,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1039,7 +891,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1057,28 +909,28 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1087,10 +939,10 @@
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1148,7 +1000,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1189,35 +1041,26 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1569,8 +1412,8 @@
   <sheetPr/>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="6"/>
@@ -1783,52 +1626,48 @@
       <c r="B13" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="16"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
     </row>
     <row r="14" ht="33" customHeight="1" spans="1:7">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" ht="33" customHeight="1" spans="1:7">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="23"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" ht="33" customHeight="1" spans="1:7">
       <c r="A16" s="13"/>
       <c r="B16" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16"/>
+        <v>49</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="15"/>
     </row>
     <row r="17" ht="33" customHeight="1" spans="1:7">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18" t="s">
-        <v>51</v>
-      </c>
+      <c r="A17" s="16"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
@@ -1836,7 +1675,7 @@
       <c r="G17" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="15">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
@@ -1847,13 +1686,11 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
     <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:G17"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B13:G14"/>
+    <mergeCell ref="B16:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
